--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3409460.438109822</v>
+        <v>3406915.252036536</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>351.2958555248362</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>346.6999128968763</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="X4" t="n">
-        <v>26.32882004050031</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>43.54424566903411</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>65.09474806312745</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>16.88986550434897</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>245.0502069609588</v>
       </c>
       <c r="I8" t="n">
-        <v>7.150945238862451</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>139.3630269640594</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>181.8992357684721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.26260713376619</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050012</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.21070476472222</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,10 +3478,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648962</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>113.6427030833203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>154.8443340724367</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819.7731851199076</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>819.7731851199076</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>819.7731851199076</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>819.7731851199076</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>408.7872803303</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.912517095719</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>819.7731851199076</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.8857516585174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>701.5342164887571</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.5342164887571</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>999.4901647174274</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C5" t="n">
-        <v>630.5276477770158</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>272.2619491702653</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2278.628164977272</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1905.162406716192</v>
       </c>
       <c r="Y5" t="n">
-        <v>1386.090004781549</v>
+        <v>1515.02307474038</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.00345202677755</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="C7" t="n">
-        <v>71.00345202677755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>71.00345202677755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>71.00345202677755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>71.00345202677755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>71.00345202677755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>71.00345202677755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>71.00345202677755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y7" t="n">
-        <v>252.6519168570173</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>1838.518194055273</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066831</v>
+        <v>1469.555677114861</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999326</v>
+        <v>1111.289978508111</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168839</v>
+        <v>725.5017259098665</v>
       </c>
       <c r="F8" t="n">
-        <v>74.21353655248491</v>
+        <v>718.5562251606631</v>
       </c>
       <c r="G8" t="n">
-        <v>61.16615882931642</v>
+        <v>301.4684433970905</v>
       </c>
       <c r="H8" t="n">
-        <v>61.16615882931642</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>165.9557701207384</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>569.4228831407838</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1122.236141386983</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1753.953952370295</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>2381.261620430141</v>
+        <v>2012.8703329856</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2183.039358302559</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>1838.518194055273</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>520.6009841418684</v>
+        <v>258.7803994994155</v>
       </c>
       <c r="M9" t="n">
-        <v>1161.146333608973</v>
+        <v>764.6264059403564</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>688.492596663134</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>519.5564137352271</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>369.4397743228914</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.4397743228914</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>634.2475255767915</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>634.2475255767915</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>344.8303555398309</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>344.8303555398309</v>
       </c>
       <c r="Y10" t="n">
-        <v>870.1410614933737</v>
+        <v>344.8303555398309</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,19 +5027,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5306,7 +5306,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,16 +5361,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2415.384692536053</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2415.384692536053</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2415.384692536053</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,19 +6306,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6546,19 +6546,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,13 +6689,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,7 +6704,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908938</v>
@@ -7087,58 +7087,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191924</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>923.067041434951</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.043492616109</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.5380889459582</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>599.6019060180513</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761979</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7719,16 +7719,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
         <v>589.1422692637306</v>
@@ -7743,10 +7743,10 @@
         <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.654127232581</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.578900576778</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>91.69549323938445</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8459,7 +8459,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>159.7974209002381</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,16 +8532,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>329.6451212993295</v>
       </c>
       <c r="N9" t="n">
-        <v>283.1760056204237</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>104.0840080815012</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.11263957635547</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.31512318719862</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>34.97276993489203</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25600,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>62.56111625485153</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>690954.161456604</v>
+        <v>690954.1614566039</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,16 +26372,16 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080587</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682726</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.536566682767</v>
-      </c>
       <c r="G4" t="n">
-        <v>5677.536566682762</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
+        <v>5677.536566682746</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682752</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="L4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682797</v>
-      </c>
       <c r="N4" t="n">
-        <v>5677.536566682786</v>
+        <v>5677.536566682777</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682786</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143811.7798631325</v>
+        <v>-143811.7798631326</v>
       </c>
       <c r="C6" t="n">
-        <v>446156.099351412</v>
+        <v>446156.0993514123</v>
       </c>
       <c r="D6" t="n">
-        <v>290352.2932576177</v>
+        <v>290352.2932576174</v>
       </c>
       <c r="E6" t="n">
-        <v>-151420.8180503911</v>
+        <v>-151455.5559758269</v>
       </c>
       <c r="F6" t="n">
-        <v>619631.8733304153</v>
+        <v>619597.1354049796</v>
       </c>
       <c r="G6" t="n">
-        <v>619631.8733304155</v>
+        <v>619597.13540498</v>
       </c>
       <c r="H6" t="n">
-        <v>619631.8733304152</v>
+        <v>619597.1354049799</v>
       </c>
       <c r="I6" t="n">
-        <v>619631.8733304157</v>
+        <v>619597.13540498</v>
       </c>
       <c r="J6" t="n">
-        <v>443208.6541378224</v>
+        <v>443173.9162123869</v>
       </c>
       <c r="K6" t="n">
-        <v>619631.8733304155</v>
+        <v>619597.1354049798</v>
       </c>
       <c r="L6" t="n">
-        <v>619631.8733304155</v>
+        <v>619597.1354049799</v>
       </c>
       <c r="M6" t="n">
-        <v>495423.3626223569</v>
+        <v>495388.624696921</v>
       </c>
       <c r="N6" t="n">
-        <v>619631.8733304157</v>
+        <v>619597.1354049802</v>
       </c>
       <c r="O6" t="n">
-        <v>619631.8733304153</v>
+        <v>619597.1354049798</v>
       </c>
       <c r="P6" t="n">
-        <v>619631.8733304156</v>
+        <v>619597.1354049798</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,17 +26966,17 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26990,13 +26990,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>62.48831449595878</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39.53802575917729</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>202.9246923626428</v>
       </c>
       <c r="X4" t="n">
-        <v>199.3808353485368</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>338.3861244032277</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>151.3535722945304</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>38.22219630222429</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>28.31009368418803</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>69.99067711425675</v>
       </c>
       <c r="I8" t="n">
-        <v>111.3450956550278</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>40.46895321787787</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,19 +28065,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.68541758362272</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>351.5042614518788</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,19 +32081,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,13 +32789,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>324.5433647340733</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,22 +33026,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>616.375287159485</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33266,22 +33266,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>209.7242506524599</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860364</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,31 +33977,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319857</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,10 +34226,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.1442306064383</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
@@ -35179,7 +35179,7 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
@@ -35188,10 +35188,10 @@
         <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>271.6502746876386</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>510.9555620615566</v>
       </c>
       <c r="N9" t="n">
-        <v>483.8393810271557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>208.9080170074344</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>182.409330812055</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>473.7790427150405</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875412</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,10 +37874,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
